--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lrrc4b-Ptprf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lrrc4b</t>
+  </si>
+  <si>
+    <t>Ptprf</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lrrc4b</t>
-  </si>
-  <si>
-    <t>Ptprf</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.066997</v>
       </c>
       <c r="I2">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J2">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N2">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O2">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P2">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q2">
-        <v>0.005492994700666667</v>
+        <v>0.01810854096683333</v>
       </c>
       <c r="R2">
-        <v>0.032957968204</v>
+        <v>0.108651245801</v>
       </c>
       <c r="S2">
-        <v>0.002487507292894987</v>
+        <v>0.007830891788057518</v>
       </c>
       <c r="T2">
-        <v>0.002968417501864081</v>
+        <v>0.01032155555070969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.066997</v>
       </c>
       <c r="I3">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J3">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>4.543219</v>
       </c>
       <c r="O3">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P3">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q3">
         <v>0.03382022703811111</v>
@@ -641,10 +641,10 @@
         <v>0.304382043343</v>
       </c>
       <c r="S3">
-        <v>0.01531551839918128</v>
+        <v>0.01462528310083386</v>
       </c>
       <c r="T3">
-        <v>0.02741470527308942</v>
+        <v>0.02891541782003556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.066997</v>
       </c>
       <c r="I4">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J4">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N4">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O4">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P4">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q4">
-        <v>0.0003780864033333332</v>
+        <v>0.0004025328642222221</v>
       </c>
       <c r="R4">
-        <v>0.00340277763</v>
+        <v>0.003622795778</v>
       </c>
       <c r="S4">
-        <v>0.0001712167473094335</v>
+        <v>0.0001740720749747018</v>
       </c>
       <c r="T4">
-        <v>0.0003064771653799237</v>
+        <v>0.0003441551690993992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>0.066997</v>
       </c>
       <c r="I5">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J5">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N5">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O5">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P5">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q5">
-        <v>0.109752006511</v>
+        <v>0.140780997091</v>
       </c>
       <c r="R5">
-        <v>0.658512039066</v>
+        <v>0.844685982546</v>
       </c>
       <c r="S5">
-        <v>0.04970128891128119</v>
+        <v>0.06087960129165761</v>
       </c>
       <c r="T5">
-        <v>0.05931004756884489</v>
+        <v>0.08024273654185834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.066997</v>
       </c>
       <c r="I6">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J6">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N6">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O6">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P6">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q6">
-        <v>0.01342227575344444</v>
+        <v>0.001582193707888889</v>
       </c>
       <c r="R6">
-        <v>0.120800481781</v>
+        <v>0.014239743371</v>
       </c>
       <c r="S6">
-        <v>0.006078288919501127</v>
+        <v>0.0006842068467534869</v>
       </c>
       <c r="T6">
-        <v>0.01088010832866854</v>
+        <v>0.00135273462488245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.066997</v>
       </c>
       <c r="I7">
-        <v>0.07602638801180391</v>
+        <v>0.08421548817316486</v>
       </c>
       <c r="J7">
-        <v>0.1049476413136274</v>
+        <v>0.1212189746948583</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N7">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O7">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P7">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q7">
-        <v>0.005018358176222222</v>
+        <v>4.956289177777777E-05</v>
       </c>
       <c r="R7">
-        <v>0.045165223586</v>
+        <v>0.000446066026</v>
       </c>
       <c r="S7">
-        <v>0.002272567741635891</v>
+        <v>2.143307088770139E-05</v>
       </c>
       <c r="T7">
-        <v>0.00406788547578049</v>
+        <v>4.237498827280762E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,10 +921,10 @@
         <v>0.485697</v>
       </c>
       <c r="I8">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J8">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.245966</v>
+        <v>0.8108664999999999</v>
       </c>
       <c r="N8">
-        <v>0.491932</v>
+        <v>1.621733</v>
       </c>
       <c r="O8">
-        <v>0.03271899873118758</v>
+        <v>0.0929863610355799</v>
       </c>
       <c r="P8">
-        <v>0.02828474718162756</v>
+        <v>0.08514801891941343</v>
       </c>
       <c r="Q8">
-        <v>0.05973247415100001</v>
+        <v>0.19691771322525</v>
       </c>
       <c r="R8">
-        <v>0.238929896604</v>
+        <v>0.7876708529009999</v>
       </c>
       <c r="S8">
-        <v>0.02704990140537374</v>
+        <v>0.08515546924752239</v>
       </c>
       <c r="T8">
-        <v>0.02151964230342969</v>
+        <v>0.07482646336870373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -983,10 +983,10 @@
         <v>0.485697</v>
       </c>
       <c r="I9">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J9">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.543219</v>
       </c>
       <c r="O9">
-        <v>0.2014500333332077</v>
+        <v>0.1736650041232461</v>
       </c>
       <c r="P9">
-        <v>0.261222690952747</v>
+        <v>0.2385387097426263</v>
       </c>
       <c r="Q9">
         <v>0.3677713064405</v>
@@ -1013,10 +1013,10 @@
         <v>2.206627838643</v>
       </c>
       <c r="S9">
-        <v>0.1665455469631584</v>
+        <v>0.1590397210224122</v>
       </c>
       <c r="T9">
-        <v>0.1987438259477845</v>
+        <v>0.2096232919225907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.485697</v>
       </c>
       <c r="I10">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J10">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01693</v>
+        <v>0.01802466666666666</v>
       </c>
       <c r="N10">
-        <v>0.05078999999999999</v>
+        <v>0.054074</v>
       </c>
       <c r="O10">
-        <v>0.002252069995523794</v>
+        <v>0.002066984099371042</v>
       </c>
       <c r="P10">
-        <v>0.002920286359405087</v>
+        <v>0.002839119617747411</v>
       </c>
       <c r="Q10">
-        <v>0.004111425104999999</v>
+        <v>0.004377263263</v>
       </c>
       <c r="R10">
-        <v>0.02466855063</v>
+        <v>0.026263579578</v>
       </c>
       <c r="S10">
-        <v>0.001861862333789944</v>
+        <v>0.00189291202439634</v>
       </c>
       <c r="T10">
-        <v>0.002221816496164498</v>
+        <v>0.002494964448648012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1107,10 +1107,10 @@
         <v>0.485697</v>
       </c>
       <c r="I11">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J11">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.914489</v>
+        <v>6.303909</v>
       </c>
       <c r="N11">
-        <v>9.828977999999999</v>
+        <v>12.607818</v>
       </c>
       <c r="O11">
-        <v>0.6537373431914789</v>
+        <v>0.7229026704265641</v>
       </c>
       <c r="P11">
-        <v>0.5651394050067473</v>
+        <v>0.6619651481449297</v>
       </c>
       <c r="Q11">
-        <v>1.1934762819165</v>
+        <v>1.5308948447865</v>
       </c>
       <c r="R11">
-        <v>4.773905127666001</v>
+        <v>6.123579379146</v>
       </c>
       <c r="S11">
-        <v>0.5404667429961612</v>
+        <v>0.6620230691349065</v>
       </c>
       <c r="T11">
-        <v>0.4299701803669607</v>
+        <v>0.5817224116030714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.485697</v>
       </c>
       <c r="I12">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J12">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6010243333333334</v>
+        <v>0.07084766666666666</v>
       </c>
       <c r="N12">
-        <v>1.803073</v>
+        <v>0.212543</v>
       </c>
       <c r="O12">
-        <v>0.07994972638391565</v>
+        <v>0.008124477594271174</v>
       </c>
       <c r="P12">
-        <v>0.1036717756824495</v>
+        <v>0.01115942968737079</v>
       </c>
       <c r="Q12">
-        <v>0.1459578578135</v>
+        <v>0.0172052495785</v>
       </c>
       <c r="R12">
-        <v>0.8757471468810002</v>
+        <v>0.103231497471</v>
       </c>
       <c r="S12">
-        <v>0.06609713927492886</v>
+        <v>0.007440270747517687</v>
       </c>
       <c r="T12">
-        <v>0.07887571047822031</v>
+        <v>0.009806695062488336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,412 +1231,40 @@
         <v>0.485697</v>
       </c>
       <c r="I13">
-        <v>0.8267337771430614</v>
+        <v>0.9157845118268352</v>
       </c>
       <c r="J13">
-        <v>0.7608214478723655</v>
+        <v>0.8787810253051417</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2247126666666667</v>
+        <v>0.002219333333333333</v>
       </c>
       <c r="N13">
-        <v>0.674138</v>
+        <v>0.006658</v>
       </c>
       <c r="O13">
-        <v>0.02989182836468636</v>
+        <v>0.0002545027209677923</v>
       </c>
       <c r="P13">
-        <v>0.03876109481702357</v>
+        <v>0.0003495738879121623</v>
       </c>
       <c r="Q13">
-        <v>0.05457113403100001</v>
+        <v>0.000538961771</v>
       </c>
       <c r="R13">
-        <v>0.3274268041860001</v>
+        <v>0.003233770626</v>
       </c>
       <c r="S13">
-        <v>0.02471258416964925</v>
+        <v>0.0002330696500800909</v>
       </c>
       <c r="T13">
-        <v>0.02949027227980592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.085691</v>
-      </c>
-      <c r="I14">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J14">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.245966</v>
-      </c>
-      <c r="N14">
-        <v>0.491932</v>
-      </c>
-      <c r="O14">
-        <v>0.03271899873118758</v>
-      </c>
-      <c r="P14">
-        <v>0.02828474718162756</v>
-      </c>
-      <c r="Q14">
-        <v>0.007025690835333334</v>
-      </c>
-      <c r="R14">
-        <v>0.042154145012</v>
-      </c>
-      <c r="S14">
-        <v>0.003181590032918852</v>
-      </c>
-      <c r="T14">
-        <v>0.003796687376333791</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.085691</v>
-      </c>
-      <c r="I15">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J15">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.514406333333333</v>
-      </c>
-      <c r="N15">
-        <v>4.543219</v>
-      </c>
-      <c r="O15">
-        <v>0.2014500333332077</v>
-      </c>
-      <c r="P15">
-        <v>0.261222690952747</v>
-      </c>
-      <c r="Q15">
-        <v>0.04325699770322222</v>
-      </c>
-      <c r="R15">
-        <v>0.389312979329</v>
-      </c>
-      <c r="S15">
-        <v>0.019588967970868</v>
-      </c>
-      <c r="T15">
-        <v>0.03506415973187316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.085691</v>
-      </c>
-      <c r="I16">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J16">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.01693</v>
-      </c>
-      <c r="N16">
-        <v>0.05078999999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.002252069995523794</v>
-      </c>
-      <c r="P16">
-        <v>0.002920286359405087</v>
-      </c>
-      <c r="Q16">
-        <v>0.0004835828766666666</v>
-      </c>
-      <c r="R16">
-        <v>0.00435224589</v>
-      </c>
-      <c r="S16">
-        <v>0.000218990914424417</v>
-      </c>
-      <c r="T16">
-        <v>0.0003919926978606661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.085691</v>
-      </c>
-      <c r="I17">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J17">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>4.914489</v>
-      </c>
-      <c r="N17">
-        <v>9.828977999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.6537373431914789</v>
-      </c>
-      <c r="P17">
-        <v>0.5651394050067473</v>
-      </c>
-      <c r="Q17">
-        <v>0.140375825633</v>
-      </c>
-      <c r="R17">
-        <v>0.842254953798</v>
-      </c>
-      <c r="S17">
-        <v>0.06356931128403655</v>
-      </c>
-      <c r="T17">
-        <v>0.07585917707094181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.085691</v>
-      </c>
-      <c r="I18">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J18">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.6010243333333334</v>
-      </c>
-      <c r="N18">
-        <v>1.803073</v>
-      </c>
-      <c r="O18">
-        <v>0.07994972638391565</v>
-      </c>
-      <c r="P18">
-        <v>0.1036717756824495</v>
-      </c>
-      <c r="Q18">
-        <v>0.01716745871588889</v>
-      </c>
-      <c r="R18">
-        <v>0.154507128443</v>
-      </c>
-      <c r="S18">
-        <v>0.007774298189485665</v>
-      </c>
-      <c r="T18">
-        <v>0.01391595687556064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02856366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.085691</v>
-      </c>
-      <c r="I19">
-        <v>0.09723983484513468</v>
-      </c>
-      <c r="J19">
-        <v>0.1342309108140072</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.2247126666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.674138</v>
-      </c>
-      <c r="O19">
-        <v>0.02989182836468636</v>
-      </c>
-      <c r="P19">
-        <v>0.03876109481702357</v>
-      </c>
-      <c r="Q19">
-        <v>0.006418617706444445</v>
-      </c>
-      <c r="R19">
-        <v>0.057767559358</v>
-      </c>
-      <c r="S19">
-        <v>0.002906676453401214</v>
-      </c>
-      <c r="T19">
-        <v>0.005202937061437169</v>
+        <v>0.0003071988996393547</v>
       </c>
     </row>
   </sheetData>
